--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_磐石组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_磐石组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0 20161229\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813"/>
+    <workbookView xWindow="-1695" yWindow="3765" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -295,6 +290,133 @@
     <t>修改</t>
   </si>
   <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>征信二期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>傅其亮、张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>【BS】报表&amp;查询优化六期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅其亮、张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度蘑菇分定时任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.2.0</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东月蘑菇分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RepoLandlordLastMonthMogoScoreTask","isAll":"yes"}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepoLandlordLastMonthMogoScoreTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月1号早上6点</t>
+  </si>
+  <si>
+    <t>重新执行</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
     <r>
       <t>sysconfig.risk_txt_record=</t>
     </r>
@@ -316,10 +438,10 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-sysconfig.risk_qh_url = https://test-qhzx.pingan.com.cn:5443/do/dmz
-sysconfig.risk_qh_username = V_PA025_QHCS_DCS
-sysconfig.risk_qh_password = weblogic1
-sysconfig.risk_qh_keyStr = SK803@!QLF-D25WEDA5E52DA
+sysconfig.risk_qh_url = https://qhzx-dcs.pingan.com.cn/do/dmz
+sysconfig.risk_qh_username = sxwluoOper
+sysconfig.risk_qh_password = a1a1a1!!
+sysconfig.risk_qh_keyStr = RMEnObMeULQH27U_6O860225
 sysconfig.risk_qh_stg_cer = D:/Key/credoo_stg.cer</t>
     </r>
     <r>
@@ -380,80 +502,19 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-sysconfig.risk_qh_orgcode = 10000000
-sysconfig.risk_qh_chnlid = qhcs-dcs
-sysconfig.risk_qh_authcode = CRT001A2
-sysconfig.risk_qh_privateKeyCode = qhzx_stg</t>
+sysconfig.risk_qh_orgcode = 91310120MA1HLCFU2X
+sysconfig.risk_qh_chnlid = sxwluo
+sysconfig.risk_qh_authcode = P2P6063XX
+sysconfig.risk_qh_privateKeyCode = kaorou_9070</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>征信二期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>傅其亮、张浩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷黎娜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>不紧急</t>
-  </si>
-  <si>
-    <t>【BS】报表&amp;查询优化六期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王健</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅其亮、张浩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>月度蘑菇分定时任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -941,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,6 +1372,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1325,7 +1407,7 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1694,14 +1776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1727,7 +1809,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16384" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1792,53 +1874,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="92" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16384" s="92" customFormat="1" ht="16.5">
       <c r="A2" s="80">
         <v>1</v>
       </c>
       <c r="B2" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="F2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="84" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>83</v>
       </c>
       <c r="H2" s="85">
         <v>42732</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="85">
         <v>42732</v>
       </c>
       <c r="K2" s="86"/>
       <c r="L2" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="82"/>
       <c r="N2" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" s="85">
         <v>42732</v>
       </c>
       <c r="Q2" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R2" s="89"/>
       <c r="S2" s="89"/>
@@ -18208,53 +18290,53 @@
       <c r="XFC2" s="91"/>
       <c r="XFD2" s="91"/>
     </row>
-    <row r="3" spans="1:16384" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16384" s="31" customFormat="1" ht="16.5">
       <c r="A3" s="80">
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="112" t="s">
-        <v>89</v>
+      <c r="E3" s="38" t="s">
+        <v>80</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="84" t="s">
         <v>82</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>83</v>
       </c>
       <c r="H3" s="85">
         <v>42733</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="85">
         <v>42733</v>
       </c>
       <c r="K3" s="86"/>
       <c r="L3" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="82"/>
       <c r="N3" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="85">
         <v>42733</v>
       </c>
       <c r="Q3" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
@@ -18262,60 +18344,60 @@
       <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
-    <row r="4" spans="1:16384" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16384" ht="23.25" customHeight="1">
       <c r="A4" s="80">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>79</v>
+      <c r="D4" s="50" t="s">
+        <v>91</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="E4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="85">
         <v>42733</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="85">
         <v>42733</v>
       </c>
       <c r="K4" s="86"/>
       <c r="L4" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O4" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="85">
         <v>42733</v>
       </c>
       <c r="Q4" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16384" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -18338,7 +18420,7 @@
       <c r="T5" s="44"/>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="1:16384" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16384" ht="20.25" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -18361,7 +18443,7 @@
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:16384" s="105" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16384" s="105" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -18385,7 +18467,7 @@
       <c r="U7" s="103"/>
       <c r="V7" s="104"/>
     </row>
-    <row r="8" spans="1:16384" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16384" ht="21.75" customHeight="1">
       <c r="A8" s="80"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -18408,7 +18490,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16384" ht="16.5">
       <c r="A9" s="80"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -18431,7 +18513,7 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:16384" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16384" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="80"/>
       <c r="B10" s="107"/>
       <c r="C10" s="107"/>
@@ -18455,7 +18537,7 @@
       <c r="U10" s="110"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:16384" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16384" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="80"/>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
@@ -18479,7 +18561,7 @@
       <c r="U11" s="111"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16384" ht="16.5">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -18502,7 +18584,7 @@
       <c r="T12" s="44"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16384" ht="16.5">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -18525,7 +18607,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16384" ht="16.5">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -18548,7 +18630,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:16384" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16384" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -18572,7 +18654,7 @@
       <c r="U15" s="78"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:16384" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16384" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -18596,7 +18678,7 @@
       <c r="U16" s="78"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -18620,7 +18702,7 @@
       <c r="U17" s="78"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -18644,7 +18726,7 @@
       <c r="U18" s="78"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -18668,7 +18750,7 @@
       <c r="U19" s="78"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -18692,7 +18774,7 @@
       <c r="U20" s="78"/>
       <c r="V20" s="51"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -18715,7 +18797,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -18738,7 +18820,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="52"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -18761,7 +18843,7 @@
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -18784,7 +18866,7 @@
       <c r="T24" s="56"/>
       <c r="U24" s="55"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -18807,7 +18889,7 @@
       <c r="T25" s="57"/>
       <c r="U25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -18830,7 +18912,7 @@
       <c r="T26" s="56"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -18853,7 +18935,7 @@
       <c r="T27" s="56"/>
       <c r="U27" s="55"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -18876,7 +18958,7 @@
       <c r="T28" s="53"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -18899,7 +18981,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="52"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -18922,7 +19004,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -18945,7 +19027,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="52"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -18968,7 +19050,7 @@
       <c r="T32" s="56"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -18991,7 +19073,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -19014,7 +19096,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="52"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -19037,7 +19119,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -19060,7 +19142,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -19083,7 +19165,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -19106,7 +19188,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -19129,7 +19211,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -19152,7 +19234,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -19175,7 +19257,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -19198,7 +19280,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -19221,7 +19303,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -19244,7 +19326,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -19267,7 +19349,7 @@
       <c r="T45" s="53"/>
       <c r="U45" s="52"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -19290,7 +19372,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -19313,7 +19395,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -19336,7 +19418,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -19359,7 +19441,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -19382,7 +19464,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -19405,7 +19487,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -19428,7 +19510,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -19451,7 +19533,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -19474,7 +19556,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -19497,7 +19579,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -19520,7 +19602,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -19543,7 +19625,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -19566,7 +19648,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -19589,7 +19671,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -19612,7 +19694,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -19635,7 +19717,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -19658,7 +19740,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -19681,7 +19763,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -19704,7 +19786,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -19727,7 +19809,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -19750,7 +19832,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -19773,7 +19855,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -19796,7 +19878,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -19819,7 +19901,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -19842,7 +19924,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -19865,7 +19947,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -19888,7 +19970,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -19911,7 +19993,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -19934,7 +20016,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -19957,7 +20039,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -19980,7 +20062,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -20003,7 +20085,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -20026,7 +20108,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -20049,7 +20131,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -20072,7 +20154,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -20095,7 +20177,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -20118,7 +20200,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -20141,7 +20223,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -20164,7 +20246,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -20187,7 +20269,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -20210,7 +20292,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -20233,7 +20315,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -20256,7 +20338,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -20279,7 +20361,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -20302,7 +20384,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -20325,7 +20407,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -20348,7 +20430,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -20371,7 +20453,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -20394,7 +20476,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -20417,7 +20499,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -20440,7 +20522,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -20463,7 +20545,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -20486,7 +20568,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -20509,7 +20591,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -20532,7 +20614,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -20555,7 +20637,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -20578,7 +20660,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -20601,7 +20683,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -20624,7 +20706,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -20647,7 +20729,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -20670,7 +20752,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -20693,7 +20775,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -20716,7 +20798,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -20739,7 +20821,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -20762,7 +20844,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -20785,7 +20867,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -20808,7 +20890,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -20831,7 +20913,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -20854,7 +20936,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -20877,7 +20959,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -20900,7 +20982,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -20923,7 +21005,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -20946,7 +21028,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -20969,7 +21051,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -20992,7 +21074,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -21015,7 +21097,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -21038,7 +21120,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -21061,7 +21143,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -21084,7 +21166,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -21107,7 +21189,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -21130,7 +21212,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -21153,7 +21235,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -21176,7 +21258,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -21199,7 +21281,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -21222,7 +21304,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -21245,7 +21327,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -21268,7 +21350,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -21291,7 +21373,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -21314,7 +21396,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -21334,7 +21416,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -21354,7 +21436,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -21374,7 +21456,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -21394,7 +21476,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -21414,7 +21496,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -21434,7 +21516,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -21454,7 +21536,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -21474,7 +21556,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -21494,7 +21576,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -21514,7 +21596,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -21534,7 +21616,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -21554,7 +21636,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -21574,7 +21656,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -21594,7 +21676,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -21614,7 +21696,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -21634,7 +21716,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -21654,7 +21736,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -21674,7 +21756,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -21694,7 +21776,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -21714,7 +21796,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -21734,7 +21816,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -21754,7 +21836,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -21774,7 +21856,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -21794,7 +21876,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -21814,7 +21896,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -21834,7 +21916,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -21854,7 +21936,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -21874,7 +21956,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -21894,7 +21976,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -21914,7 +21996,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -21934,7 +22016,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -21954,7 +22036,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -21974,7 +22056,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -21994,7 +22076,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -22045,14 +22127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -22072,7 +22154,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>53</v>
       </c>
@@ -22128,27 +22210,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>95</v>
+      </c>
       <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="D2" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>102</v>
+      </c>
       <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71"/>
+      <c r="L2" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="127" t="s">
+        <v>104</v>
+      </c>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -22158,7 +22270,7 @@
       <c r="G3" s="66"/>
       <c r="H3" s="67"/>
       <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="J3" s="126"/>
       <c r="K3" s="70"/>
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
@@ -22168,7 +22280,7 @@
       <c r="Q3" s="71"/>
       <c r="R3" s="71"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -22195,14 +22307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -22214,7 +22326,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="114" t="s">
         <v>52</v>
       </c>
@@ -22229,7 +22341,7 @@
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -22264,7 +22376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="116"/>
       <c r="B3" s="116"/>
       <c r="C3" s="20"/>
@@ -22277,7 +22389,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="117"/>
       <c r="B4" s="118"/>
       <c r="C4" s="20"/>
@@ -22290,7 +22402,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="116"/>
       <c r="B5" s="116"/>
       <c r="C5" s="20"/>
@@ -22303,7 +22415,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="118"/>
       <c r="B6" s="118"/>
       <c r="C6" s="20"/>
@@ -22316,7 +22428,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="118"/>
       <c r="B7" s="118"/>
       <c r="C7" s="20"/>
@@ -22329,7 +22441,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="118"/>
       <c r="B8" s="118"/>
       <c r="C8" s="20"/>
@@ -22342,7 +22454,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="118"/>
       <c r="B9" s="118"/>
       <c r="C9" s="20"/>
@@ -22355,7 +22467,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="20"/>
@@ -22368,7 +22480,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -22395,14 +22507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -22417,7 +22529,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
@@ -22434,7 +22546,7 @@
       <c r="L1" s="119"/>
       <c r="M1" s="120"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="121"/>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
@@ -22449,7 +22561,7 @@
       <c r="L2" s="121"/>
       <c r="M2" s="122"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -22490,7 +22602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -22505,7 +22617,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -22520,7 +22632,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -22535,7 +22647,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -22550,7 +22662,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -22565,7 +22677,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -22580,7 +22692,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -22595,7 +22707,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -22610,7 +22722,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -22625,7 +22737,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -22640,7 +22752,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -22655,7 +22767,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -22670,7 +22782,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -22709,14 +22821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -22731,7 +22843,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
@@ -22748,7 +22860,7 @@
       <c r="L1" s="119"/>
       <c r="M1" s="120"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="121"/>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
@@ -22763,7 +22875,7 @@
       <c r="L2" s="121"/>
       <c r="M2" s="122"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -22804,7 +22916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="297" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="297">
       <c r="A4" s="94">
         <v>1</v>
       </c>
@@ -22824,7 +22936,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="H4" s="96" t="s">
         <v>71</v>
@@ -22845,7 +22957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A5" s="94"/>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -22860,7 +22972,7 @@
       <c r="L5" s="94"/>
       <c r="M5" s="95"/>
     </row>
-    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A6" s="94"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
@@ -22875,7 +22987,7 @@
       <c r="L6" s="94"/>
       <c r="M6" s="95"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -22890,7 +23002,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -22905,7 +23017,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -22920,7 +23032,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -22935,7 +23047,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -22950,7 +23062,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -22965,7 +23077,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -22980,7 +23092,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -22995,7 +23107,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -23010,7 +23122,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -23050,14 +23162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -23072,7 +23184,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
@@ -23089,7 +23201,7 @@
       <c r="L1" s="119"/>
       <c r="M1" s="120"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="121"/>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
@@ -23104,7 +23216,7 @@
       <c r="L2" s="121"/>
       <c r="M2" s="122"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -23145,7 +23257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="297" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="297">
       <c r="A4" s="94">
         <v>1</v>
       </c>
@@ -23165,7 +23277,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="H4" s="96" t="s">
         <v>71</v>
@@ -23186,7 +23298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A5" s="94"/>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -23201,7 +23313,7 @@
       <c r="L5" s="94"/>
       <c r="M5" s="95"/>
     </row>
-    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A6" s="94"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
@@ -23216,7 +23328,7 @@
       <c r="L6" s="94"/>
       <c r="M6" s="95"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -23231,7 +23343,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -23246,7 +23358,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -23261,7 +23373,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -23276,7 +23388,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -23291,7 +23403,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -23306,7 +23418,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -23321,7 +23433,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -23336,7 +23448,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -23351,7 +23463,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -23390,14 +23502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -23414,7 +23526,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
@@ -23431,7 +23543,7 @@
       <c r="L1" s="119"/>
       <c r="M1" s="120"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="121"/>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
@@ -23446,7 +23558,7 @@
       <c r="L2" s="121"/>
       <c r="M2" s="122"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -23487,7 +23599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -23502,7 +23614,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A5" s="94"/>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -23517,7 +23629,7 @@
       <c r="L5" s="94"/>
       <c r="M5" s="95"/>
     </row>
-    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="97" customFormat="1" ht="16.5">
       <c r="A6" s="94"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
@@ -23532,7 +23644,7 @@
       <c r="L6" s="94"/>
       <c r="M6" s="95"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -23547,7 +23659,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -23562,7 +23674,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -23577,7 +23689,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -23592,7 +23704,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -23607,7 +23719,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -23622,7 +23734,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -23637,7 +23749,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -23652,7 +23764,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -23667,7 +23779,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -23706,14 +23818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -23724,7 +23836,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -23750,7 +23862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -23760,7 +23872,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -23770,7 +23882,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -23780,7 +23892,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -23790,7 +23902,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -23800,7 +23912,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -23810,7 +23922,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -23820,7 +23932,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -23830,7 +23942,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -23840,7 +23952,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -23850,7 +23962,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -23860,7 +23972,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -23870,7 +23982,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -23880,7 +23992,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -23890,7 +24002,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -23900,7 +24012,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -23910,7 +24022,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -23920,7 +24032,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
